--- a/Cost function.xlsx
+++ b/Cost function.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Path-Planning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E980A28A-CE07-4FCE-9208-5CFDEB403F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Normalise distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Dist Cost </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Total cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,23 +78,29 @@
     <t>Back Car</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Normalize distance (detect range)</t>
+  </si>
+  <si>
+    <t>Speed Cost Function</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -105,7 +109,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -114,7 +118,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -193,56 +197,64 @@
     </xf>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -567,49 +579,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:13">
       <c r="E1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F1">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:15">
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="2" spans="2:13">
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:15">
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -619,6 +634,12 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
@@ -626,28 +647,22 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
       <c r="K3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4">
         <v>25</v>
       </c>
@@ -657,44 +672,44 @@
       <c r="D4">
         <v>45</v>
       </c>
+      <c r="E4">
+        <f>1-B4/$F$1</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="F4">
+        <f>(D4-C4)/C4</f>
+        <v>-0.1</v>
+      </c>
       <c r="G4">
-        <f t="shared" ref="G4:G19" si="0">1-B4/$F$1</f>
+        <f>(2^(-F4)-F4)</f>
+        <v>1.1717734625362932</v>
+      </c>
+      <c r="H4">
+        <f>(G4+E4)/2</f>
+        <v>0.66922006460147987</v>
+      </c>
+      <c r="I4">
+        <f>1-B23/$F$1</f>
         <v>0.16666666666666663</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H19" si="1">(D4-C4)/C4</f>
+      <c r="J4">
+        <f>(D23-C23)/C23</f>
         <v>-0.1</v>
       </c>
-      <c r="I4">
-        <f>(2^(-H4)-H4)</f>
-        <v>1.1717734625362932</v>
-      </c>
-      <c r="J4">
-        <f>(I4+G4)/2</f>
-        <v>0.66922006460147987</v>
-      </c>
       <c r="K4">
-        <f t="shared" ref="K4:K19" si="2">1-B23/$F$1</f>
-        <v>0.16666666666666663</v>
+        <f>2^(J4)+J4</f>
+        <v>0.83303299153680743</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L19" si="3">(D23-C23)/C23</f>
-        <v>-0.1</v>
+        <f>(K4+I4)/2</f>
+        <v>0.49984982910173703</v>
       </c>
       <c r="M4">
-        <f>2^(L4)+L4</f>
-        <v>0.83303299153680743</v>
-      </c>
-      <c r="N4">
-        <f>(M4+K4)/2</f>
-        <v>0.49984982910173703</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O19" si="4">(J4+N4)/2</f>
+        <f>(H4+L4)/2</f>
         <v>0.58453494685160845</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:13">
       <c r="B5">
         <v>10</v>
       </c>
@@ -704,44 +719,44 @@
       <c r="D5">
         <v>45</v>
       </c>
+      <c r="E5">
+        <f>1-B5/$F$1</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="F5">
+        <f>(D5-C5)/C5</f>
+        <v>-0.1</v>
+      </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G5:G19" si="0">(2^(-F5)-F5)</f>
+        <v>1.1717734625362932</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H19" si="1">(G5+E5)/2</f>
+        <v>0.91922006460147998</v>
+      </c>
+      <c r="I5">
+        <f>1-B24/$F$1</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
+      <c r="J5">
+        <f>(D24-C24)/C24</f>
         <v>-0.1</v>
       </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I19" si="5">(2^(-H5)-H5)</f>
-        <v>1.1717734625362932</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J19" si="6">(I5+G5)/2</f>
-        <v>0.91922006460147998</v>
-      </c>
       <c r="K5">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666674</v>
+        <f t="shared" ref="K5:K19" si="2">2^(J5)+J5</f>
+        <v>0.83303299153680743</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
-        <v>-0.1</v>
+        <f t="shared" ref="L5:L19" si="3">(K5+I5)/2</f>
+        <v>0.74984982910173703</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M19" si="7">2^(L5)+L5</f>
-        <v>0.83303299153680743</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ref="N5:N19" si="8">(M5+K5)/2</f>
-        <v>0.74984982910173703</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="4"/>
+        <f>(H5+L5)/2</f>
         <v>0.83453494685160856</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>25</v>
       </c>
@@ -751,44 +766,44 @@
       <c r="D6">
         <v>30</v>
       </c>
+      <c r="E6">
+        <f>1-B6/$F$1</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="F6">
+        <f>(D6-C6)/C6</f>
+        <v>-0.4</v>
+      </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.16666666666666663</v>
+        <v>1.7195079107728941</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
+        <v>0.94308728871978031</v>
+      </c>
+      <c r="I6">
+        <f>1-B25/$F$1</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="J6">
+        <f>(D25-C25)/C25</f>
         <v>-0.4</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="5"/>
-        <v>1.7195079107728941</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="6"/>
-        <v>0.94308728871978031</v>
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
-        <v>0.16666666666666663</v>
+        <v>0.35785828325519908</v>
       </c>
       <c r="L6">
         <f t="shared" si="3"/>
-        <v>-0.4</v>
+        <v>0.26226247496093286</v>
       </c>
       <c r="M6">
-        <f t="shared" si="7"/>
-        <v>0.35785828325519908</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="8"/>
-        <v>0.26226247496093286</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="4"/>
+        <f>(H6+L6)/2</f>
         <v>0.60267488184035656</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:13">
       <c r="B7">
         <v>25</v>
       </c>
@@ -798,44 +813,44 @@
       <c r="D7">
         <v>60</v>
       </c>
+      <c r="E7">
+        <f>1-B7/$F$1</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="F7">
+        <f>(D7-C7)/C7</f>
+        <v>0.2</v>
+      </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.16666666666666663</v>
+        <v>0.67055056329612417</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
+        <v>0.4186086149813954</v>
+      </c>
+      <c r="I7">
+        <f>1-B26/$F$1</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="J7">
+        <f>(D26-C26)/C26</f>
         <v>0.2</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="5"/>
-        <v>0.67055056329612417</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="6"/>
-        <v>0.4186086149813954</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>0.16666666666666663</v>
+        <v>1.3486983549970351</v>
       </c>
       <c r="L7">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.75768251083185079</v>
       </c>
       <c r="M7">
-        <f t="shared" si="7"/>
-        <v>1.3486983549970351</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="8"/>
-        <v>0.75768251083185079</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="4"/>
+        <f>(H7+L7)/2</f>
         <v>0.58814556290662312</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:13">
       <c r="B8">
         <v>25</v>
       </c>
@@ -845,44 +860,44 @@
       <c r="D8">
         <v>70</v>
       </c>
+      <c r="E8">
+        <f>1-B8/$F$1</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="F8">
+        <f>(D8-C8)/C8</f>
+        <v>0.4</v>
+      </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.16666666666666663</v>
+        <v>0.35785828325519908</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
+        <v>0.26226247496093286</v>
+      </c>
+      <c r="I8">
+        <f>1-B27/$F$1</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="J8">
+        <f>(D27-C27)/C27</f>
         <v>0.4</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="5"/>
-        <v>0.35785828325519908</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="6"/>
-        <v>0.26226247496093286</v>
       </c>
       <c r="K8">
         <f t="shared" si="2"/>
-        <v>0.16666666666666663</v>
+        <v>1.7195079107728941</v>
       </c>
       <c r="L8">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.94308728871978031</v>
       </c>
       <c r="M8">
-        <f t="shared" si="7"/>
-        <v>1.7195079107728941</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="8"/>
-        <v>0.94308728871978031</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="4"/>
+        <f>(H8+L8)/2</f>
         <v>0.60267488184035656</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:13">
       <c r="B9">
         <v>25</v>
       </c>
@@ -892,44 +907,44 @@
       <c r="D9">
         <v>30</v>
       </c>
+      <c r="E9">
+        <f>1-B9/$F$1</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="F9">
+        <f>(D9-C9)/C9</f>
+        <v>-0.4</v>
+      </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.16666666666666663</v>
+        <v>1.7195079107728941</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
+        <v>0.94308728871978031</v>
+      </c>
+      <c r="I9">
+        <f>1-B28/$F$1</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="J9">
+        <f>(D28-C28)/C28</f>
         <v>-0.4</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="5"/>
-        <v>1.7195079107728941</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="6"/>
-        <v>0.94308728871978031</v>
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
-        <v>0.16666666666666663</v>
+        <v>0.35785828325519908</v>
       </c>
       <c r="L9">
         <f t="shared" si="3"/>
-        <v>-0.4</v>
+        <v>0.26226247496093286</v>
       </c>
       <c r="M9">
-        <f t="shared" si="7"/>
-        <v>0.35785828325519908</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="8"/>
-        <v>0.26226247496093286</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="4"/>
+        <f>(H9+L9)/2</f>
         <v>0.60267488184035656</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:13">
       <c r="B10">
         <v>25</v>
       </c>
@@ -939,44 +954,44 @@
       <c r="D10">
         <v>45</v>
       </c>
+      <c r="E10">
+        <f>1-B10/$F$1</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="F10">
+        <f>(D10-C10)/C10</f>
+        <v>-0.1</v>
+      </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666663</v>
+        <v>1.1717734625362932</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
+        <v>0.66922006460147987</v>
+      </c>
+      <c r="I10">
+        <f>1-B29/$F$1</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="J10">
+        <f>(D29-C29)/C29</f>
         <v>-0.1</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="5"/>
-        <v>1.1717734625362932</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="6"/>
-        <v>0.66922006460147987</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>0.16666666666666663</v>
+        <v>0.83303299153680743</v>
       </c>
       <c r="L10">
         <f t="shared" si="3"/>
-        <v>-0.1</v>
+        <v>0.49984982910173703</v>
       </c>
       <c r="M10">
-        <f t="shared" si="7"/>
-        <v>0.83303299153680743</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="8"/>
-        <v>0.49984982910173703</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="4"/>
+        <f>(H10+L10)/2</f>
         <v>0.58453494685160845</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:13">
       <c r="B11">
         <v>25</v>
       </c>
@@ -985,45 +1000,45 @@
       </c>
       <c r="D11">
         <v>50</v>
+      </c>
+      <c r="E11">
+        <f>1-B11/$F$1</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="F11">
+        <f>(D11-C11)/C11</f>
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.16666666666666663</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="I11">
+        <f>1-B30/$F$1</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="J11">
+        <f>(D30-C30)/C30</f>
         <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="6"/>
-        <v>0.58333333333333326</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>0.16666666666666663</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="M11">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="8"/>
+        <f>(H11+L11)/2</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="4"/>
-        <v>0.58333333333333326</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12">
         <v>25</v>
       </c>
@@ -1033,44 +1048,44 @@
       <c r="D12">
         <v>60</v>
       </c>
+      <c r="E12">
+        <f>1-B12/$F$1</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="F12">
+        <f>(D12-C12)/C12</f>
+        <v>0.2</v>
+      </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.16666666666666663</v>
+        <v>0.67055056329612417</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
+        <v>0.4186086149813954</v>
+      </c>
+      <c r="I12">
+        <f>1-B31/$F$1</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="J12">
+        <f>(D31-C31)/C31</f>
         <v>0.2</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="5"/>
-        <v>0.67055056329612417</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="6"/>
-        <v>0.4186086149813954</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>0.16666666666666663</v>
+        <v>1.3486983549970351</v>
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.75768251083185079</v>
       </c>
       <c r="M12">
-        <f t="shared" si="7"/>
-        <v>1.3486983549970351</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="8"/>
-        <v>0.75768251083185079</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="4"/>
+        <f>(H12+L12)/2</f>
         <v>0.58814556290662312</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:13">
       <c r="B13">
         <v>25</v>
       </c>
@@ -1080,44 +1095,44 @@
       <c r="D13">
         <v>80</v>
       </c>
+      <c r="E13">
+        <f>1-B13/$F$1</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="F13">
+        <f>(D13-C13)/C13</f>
+        <v>0.6</v>
+      </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.16666666666666663</v>
+        <v>5.9753955386447233E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
+        <v>0.11321031102655693</v>
+      </c>
+      <c r="I13">
+        <f>1-B32/$F$1</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="J13">
+        <f>(D32-C32)/C32</f>
         <v>0.6</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="5"/>
-        <v>5.9753955386447233E-2</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="6"/>
-        <v>0.11321031102655693</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>0.16666666666666663</v>
+        <v>2.1157165665103981</v>
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>1.1411916165885323</v>
       </c>
       <c r="M13">
-        <f t="shared" si="7"/>
-        <v>2.1157165665103981</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="8"/>
-        <v>1.1411916165885323</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="4"/>
+        <f>(H13+L13)/2</f>
         <v>0.62720096380754464</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:13">
       <c r="B14">
         <v>29</v>
       </c>
@@ -1127,44 +1142,44 @@
       <c r="D14">
         <v>60</v>
       </c>
+      <c r="E14">
+        <f>1-B14/$F$1</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="F14">
+        <f>(D14-C14)/C14</f>
+        <v>0.2</v>
+      </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>3.3333333333333326E-2</v>
+        <v>0.67055056329612417</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
+        <v>0.35194194831472875</v>
+      </c>
+      <c r="I14">
+        <f>1-B33/$F$1</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="J14">
+        <f>(D33-C33)/C33</f>
         <v>0.2</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="5"/>
-        <v>0.67055056329612417</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="6"/>
-        <v>0.35194194831472875</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>3.3333333333333326E-2</v>
+        <v>1.3486983549970351</v>
       </c>
       <c r="L14">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.69101584416518413</v>
       </c>
       <c r="M14">
-        <f t="shared" si="7"/>
-        <v>1.3486983549970351</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="8"/>
-        <v>0.69101584416518413</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="4"/>
+        <f>(H14+L14)/2</f>
         <v>0.52147889623995647</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:13">
       <c r="B15">
         <v>10</v>
       </c>
@@ -1174,44 +1189,44 @@
       <c r="D15">
         <v>60</v>
       </c>
+      <c r="E15">
+        <f>1-B15/$F$1</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="F15">
+        <f>(D15-C15)/C15</f>
+        <v>0.2</v>
+      </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.66666666666666674</v>
+        <v>0.67055056329612417</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
+        <v>0.66860861498139545</v>
+      </c>
+      <c r="I15">
+        <f>1-B34/$F$1</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="J15">
+        <f>(D34-C34)/C34</f>
         <v>0.2</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="5"/>
-        <v>0.67055056329612417</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="6"/>
-        <v>0.66860861498139545</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>0.66666666666666674</v>
+        <v>1.3486983549970351</v>
       </c>
       <c r="L15">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>1.007682510831851</v>
       </c>
       <c r="M15">
-        <f t="shared" si="7"/>
-        <v>1.3486983549970351</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="8"/>
-        <v>1.007682510831851</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="4"/>
+        <f>(H15+L15)/2</f>
         <v>0.83814556290662323</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:13">
       <c r="B16">
         <v>10</v>
       </c>
@@ -1221,44 +1236,44 @@
       <c r="D16">
         <v>70</v>
       </c>
+      <c r="E16">
+        <f>1-B16/$F$1</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="F16">
+        <f>(D16-C16)/C16</f>
+        <v>0.4</v>
+      </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.66666666666666674</v>
+        <v>0.35785828325519908</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
+        <v>0.51226247496093291</v>
+      </c>
+      <c r="I16">
+        <f>1-B35/$F$1</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="J16">
+        <f>(D35-C35)/C35</f>
         <v>0.4</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="5"/>
-        <v>0.35785828325519908</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="6"/>
-        <v>0.51226247496093291</v>
       </c>
       <c r="K16">
         <f t="shared" si="2"/>
-        <v>0.66666666666666674</v>
+        <v>1.7195079107728941</v>
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>1.1930872887197803</v>
       </c>
       <c r="M16">
-        <f t="shared" si="7"/>
-        <v>1.7195079107728941</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="8"/>
-        <v>1.1930872887197803</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="4"/>
+        <f>(H16+L16)/2</f>
         <v>0.85267488184035667</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:13">
       <c r="B17">
         <v>15</v>
       </c>
@@ -1268,44 +1283,44 @@
       <c r="D17">
         <v>30</v>
       </c>
+      <c r="E17">
+        <f>1-B17/$F$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <f>(D17-C17)/C17</f>
+        <v>-0.4</v>
+      </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.7195079107728941</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
+        <v>1.1097539553864471</v>
+      </c>
+      <c r="I17">
+        <f>1-B36/$F$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <f>(D36-C36)/C36</f>
         <v>-0.4</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="5"/>
-        <v>1.7195079107728941</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="6"/>
-        <v>1.1097539553864471</v>
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.35785828325519908</v>
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>-0.4</v>
+        <v>0.42892914162759954</v>
       </c>
       <c r="M17">
-        <f t="shared" si="7"/>
-        <v>0.35785828325519908</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="8"/>
-        <v>0.42892914162759954</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="4"/>
+        <f>(H17+L17)/2</f>
         <v>0.7693415485070233</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:13">
       <c r="B18">
         <v>10</v>
       </c>
@@ -1315,44 +1330,44 @@
       <c r="D18">
         <v>25</v>
       </c>
+      <c r="E18">
+        <f>1-B18/$F$1</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="F18">
+        <f>(D18-C18)/C18</f>
+        <v>-0.5</v>
+      </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>0.66666666666666674</v>
+        <v>1.9142135623730951</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
+        <v>1.2904401145198809</v>
+      </c>
+      <c r="I18">
+        <f>1-B37/$F$1</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="J18">
+        <f>(D37-C37)/C37</f>
         <v>-0.5</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="5"/>
-        <v>1.9142135623730951</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="6"/>
-        <v>1.2904401145198809</v>
       </c>
       <c r="K18">
         <f t="shared" si="2"/>
-        <v>0.66666666666666674</v>
+        <v>0.20710678118654746</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>-0.5</v>
+        <v>0.4368867239266071</v>
       </c>
       <c r="M18">
-        <f t="shared" si="7"/>
-        <v>0.20710678118654746</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="8"/>
-        <v>0.4368867239266071</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="4"/>
+        <f>(H18+L18)/2</f>
         <v>0.86366341922324397</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:13">
       <c r="B19">
         <v>30</v>
       </c>
@@ -1362,44 +1377,44 @@
       <c r="D19">
         <v>40</v>
       </c>
+      <c r="E19">
+        <f>1-B19/$F$1</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>(D19-C19)/C19</f>
+        <v>-0.2</v>
+      </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3486983549970351</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
+        <v>0.67434917749851753</v>
+      </c>
+      <c r="I19">
+        <f>1-B38/$F$1</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>(D38-C38)/C38</f>
         <v>-0.2</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="5"/>
-        <v>1.3486983549970351</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="6"/>
-        <v>0.67434917749851753</v>
       </c>
       <c r="K19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.67055056329612417</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.33527528164806208</v>
       </c>
       <c r="M19">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="4"/>
-        <v>0.58717458874925876</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15">
+        <f>(H19+L19)/2</f>
+        <v>0.50481222957328975</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -1410,7 +1425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:13">
       <c r="B23">
         <v>25</v>
       </c>
@@ -1421,7 +1436,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:13">
       <c r="B24">
         <v>10</v>
       </c>
@@ -1432,7 +1447,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:13">
       <c r="B25">
         <v>25</v>
       </c>
@@ -1443,7 +1458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:13">
       <c r="B26">
         <v>25</v>
       </c>
@@ -1454,7 +1469,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:13">
       <c r="B27">
         <v>25</v>
       </c>
@@ -1465,7 +1480,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:13">
       <c r="B28">
         <v>25</v>
       </c>
@@ -1476,7 +1491,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:13">
       <c r="B29">
         <v>25</v>
       </c>
@@ -1487,7 +1502,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:13">
       <c r="B30">
         <v>25</v>
       </c>
@@ -1498,7 +1513,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:13">
       <c r="B31">
         <v>25</v>
       </c>
@@ -1509,7 +1524,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:13">
       <c r="B32">
         <v>25</v>
       </c>
@@ -1583,17 +1598,17 @@
         <v>50</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:D19">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1605,7 +1620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B19">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1617,7 +1632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1628,8 +1643,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J19">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="H4:H19">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1640,7 +1655,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M19">
+  <conditionalFormatting sqref="K4:K19">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G19">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1652,7 +1679,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I19">
+  <conditionalFormatting sqref="L4:L19">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1664,20 +1691,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N19">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B23:B38">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1688,8 +1703,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O19">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="M4:M19">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1701,7 +1716,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1713,7 +1728,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D38">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
